--- a/DER_ProgramacionIII.xlsx
+++ b/DER_ProgramacionIII.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="49">
   <si>
     <t>Tabla Clientes</t>
   </si>
@@ -54,9 +54,6 @@
     <t>alexis.rod@gmail.com</t>
   </si>
   <si>
-    <t>La niña 6732</t>
-  </si>
-  <si>
     <t>Tabla Deportes</t>
   </si>
   <si>
@@ -153,29 +150,27 @@
     <t>Efectivo</t>
   </si>
   <si>
-    <t>Tabla Deporte x Comision</t>
-  </si>
-  <si>
     <t xml:space="preserve">               Año</t>
   </si>
   <si>
     <t xml:space="preserve">Octubre </t>
+  </si>
+  <si>
+    <t>La Niña 6732</t>
+  </si>
+  <si>
+    <t>Cod_Comision</t>
+  </si>
+  <si>
+    <t>Tabla Comision</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -308,66 +303,63 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="20" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -672,10 +664,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G35"/>
+  <dimension ref="A2:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33:B33"/>
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -693,459 +685,459 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
         <v>21</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="5">
+        <v>41804277</v>
+      </c>
+      <c r="D4" s="6">
+        <v>36253</v>
+      </c>
+      <c r="E4" s="5">
+        <v>44650215</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="6">
+        <v>43326</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="21"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>2</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="19"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <v>4</v>
+      </c>
+      <c r="B14" s="5">
+        <v>2</v>
+      </c>
+      <c r="C14" s="5">
+        <v>510</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" s="8">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="G14" s="8">
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="19"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
+        <v>21</v>
+      </c>
+      <c r="B18" s="5">
+        <v>2</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <v>21</v>
+      </c>
+      <c r="B19" s="4">
+        <v>4</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="19"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
+        <v>510</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" s="5">
+        <v>40862096</v>
+      </c>
+      <c r="D23" s="6">
+        <v>36018</v>
+      </c>
+      <c r="E23" s="5">
+        <v>44629483</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
+      <c r="C24" s="14"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="12">
+        <v>42681</v>
+      </c>
+      <c r="C25" s="15"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="18"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D28" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E28" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="G28" s="2"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="10">
+        <v>315468862</v>
+      </c>
+      <c r="B29" s="10">
+        <v>510</v>
+      </c>
+      <c r="C29" s="6">
+        <v>43402</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E29" s="4">
+        <v>2018</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G29" s="2"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="11"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" s="19"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D32" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E32" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="F32" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="G32" s="2"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="5">
+        <v>521351322</v>
+      </c>
+      <c r="B33" s="5">
         <v>21</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="8">
-        <v>41804277</v>
-      </c>
-      <c r="D4" s="9">
-        <v>36253</v>
-      </c>
-      <c r="E4" s="8">
-        <v>44650215</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="9">
-        <v>43326</v>
-      </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="1"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="8">
-        <v>2</v>
-      </c>
-      <c r="B10" s="8" t="s">
+      <c r="C33" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D33" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="8">
-        <v>2</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="8">
-        <v>510</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F16" s="11">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="G16" s="11">
-        <v>0.83333333333333337</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="8">
-        <v>21</v>
-      </c>
-      <c r="B20" s="8">
-        <v>2</v>
-      </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="7">
-        <v>21</v>
-      </c>
-      <c r="B21" s="7">
-        <v>4</v>
-      </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23" s="4"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="8">
-        <v>510</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C25" s="8">
-        <v>40862096</v>
-      </c>
-      <c r="D25" s="9">
-        <v>36018</v>
-      </c>
-      <c r="E25" s="8">
-        <v>44629483</v>
-      </c>
-      <c r="F25" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G25" s="12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C26" s="17"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27" s="15">
-        <v>42681</v>
-      </c>
-      <c r="C27" s="18"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="5"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="B29" s="21"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="B30" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="C30" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="D30" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="E30" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="F30" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="G30" s="5"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="13">
-        <v>315468862</v>
-      </c>
-      <c r="B31" s="13">
-        <v>510</v>
-      </c>
-      <c r="C31" s="9">
-        <v>43402</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E31" s="7">
-        <v>2018</v>
-      </c>
-      <c r="F31" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="G31" s="5"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="14"/>
-      <c r="B32" s="14"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="B33" s="22"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="B34" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="C34" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="D34" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="E34" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="F34" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="G34" s="5"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="8">
-        <v>521351322</v>
-      </c>
-      <c r="B35" s="8">
-        <v>21</v>
-      </c>
-      <c r="C35" s="8" t="s">
+      <c r="E33" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D35" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E35" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="F35" s="9">
+      <c r="F33" s="6">
         <v>43398</v>
       </c>
-      <c r="G35" s="5"/>
+      <c r="G33" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A31:B31"/>
     <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A33:B33"/>
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A23:B23"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G4" r:id="rId1"/>
-    <hyperlink ref="G25" r:id="rId2"/>
+    <hyperlink ref="G23" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>

--- a/DER_ProgramacionIII.xlsx
+++ b/DER_ProgramacionIII.xlsx
@@ -305,14 +305,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -350,17 +348,20 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -667,7 +668,7 @@
   <dimension ref="A2:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -685,455 +686,455 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
+      <c r="A4" s="3">
         <v>21</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="3">
         <v>41804277</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="4">
         <v>36253</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="3">
         <v>44650215</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="4">
         <v>43326</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="21"/>
+      <c r="B8" s="19"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
+      <c r="A10" s="3">
         <v>2</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="19"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="G13" s="2" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
+      <c r="A14" s="3">
         <v>4</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="3">
         <v>2</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="3">
         <v>510</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F14" s="8">
+      <c r="F14" s="6">
         <v>0.70833333333333337</v>
       </c>
-      <c r="G14" s="8">
+      <c r="G14" s="6">
         <v>0.83333333333333337</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="19" t="s">
+      <c r="A16" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="19"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="5">
+      <c r="A18" s="3">
         <v>21</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18" s="3">
         <v>2</v>
       </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="4">
+      <c r="A19" s="3">
         <v>21</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19" s="3">
         <v>4</v>
       </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="19" t="s">
+      <c r="A21" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="19"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="E22" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="F22" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G22" s="3" t="s">
+      <c r="G22" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="5">
+      <c r="A23" s="3">
         <v>510</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C23" s="3">
         <v>40862096</v>
       </c>
-      <c r="D23" s="6">
+      <c r="D23" s="4">
         <v>36018</v>
       </c>
-      <c r="E23" s="5">
+      <c r="E23" s="3">
         <v>44629483</v>
       </c>
-      <c r="F23" s="5" t="s">
+      <c r="F23" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G23" s="9" t="s">
+      <c r="G23" s="7" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C24" s="14"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="12">
+      <c r="B25" s="10">
         <v>42681</v>
       </c>
-      <c r="C25" s="15"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="18" t="s">
+      <c r="A27" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="18"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="16" t="s">
+      <c r="A28" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B28" s="16" t="s">
+      <c r="B28" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C28" s="16" t="s">
+      <c r="C28" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="D28" s="16" t="s">
+      <c r="D28" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="E28" s="17" t="s">
+      <c r="E28" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="F28" s="16" t="s">
+      <c r="F28" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="G28" s="2"/>
+      <c r="G28" s="1"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="10">
+      <c r="A29" s="8">
         <v>315468862</v>
       </c>
-      <c r="B29" s="10">
+      <c r="B29" s="8">
         <v>510</v>
       </c>
-      <c r="C29" s="6">
+      <c r="C29" s="4">
         <v>43402</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D29" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="E29" s="4">
+      <c r="E29" s="3">
         <v>2018</v>
       </c>
-      <c r="F29" s="5" t="s">
+      <c r="F29" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G29" s="2"/>
+      <c r="G29" s="1"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="11"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
+      <c r="A30" s="9"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="19" t="s">
+      <c r="A31" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="19"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="16" t="s">
+      <c r="A32" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="16" t="s">
+      <c r="B32" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C32" s="16" t="s">
+      <c r="C32" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="D32" s="16" t="s">
+      <c r="D32" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="E32" s="16" t="s">
+      <c r="E32" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="F32" s="16" t="s">
+      <c r="F32" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="G32" s="2"/>
+      <c r="G32" s="1"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="5">
+      <c r="A33" s="3">
         <v>521351322</v>
       </c>
-      <c r="B33" s="5">
+      <c r="B33" s="3">
         <v>21</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="C33" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D33" s="5" t="s">
+      <c r="D33" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E33" s="5" t="s">
+      <c r="E33" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="F33" s="6">
+      <c r="F33" s="4">
         <v>43398</v>
       </c>
-      <c r="G33" s="2"/>
+      <c r="G33" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A2:B2"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A2:B2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G4" r:id="rId1"/>

--- a/DER_ProgramacionIII.xlsx
+++ b/DER_ProgramacionIII.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="59">
   <si>
     <t>Tabla Clientes</t>
   </si>
@@ -72,12 +72,6 @@
     <t>$350</t>
   </si>
   <si>
-    <t>Martes</t>
-  </si>
-  <si>
-    <t>Tabla Deporte x Cliente</t>
-  </si>
-  <si>
     <t>Cod_Cliente</t>
   </si>
   <si>
@@ -114,9 +108,6 @@
     <t>Nro_Pago</t>
   </si>
   <si>
-    <t>Descripcion</t>
-  </si>
-  <si>
     <t>Tipo_Pago</t>
   </si>
   <si>
@@ -163,6 +154,45 @@
   </si>
   <si>
     <t>Tabla Comision</t>
+  </si>
+  <si>
+    <t>Tabla Comision x Cliente</t>
+  </si>
+  <si>
+    <t>Tabla Tipos de pago</t>
+  </si>
+  <si>
+    <t>Cod_Tipo</t>
+  </si>
+  <si>
+    <t>Tabla Comision x Dia</t>
+  </si>
+  <si>
+    <t>Cod_Dia</t>
+  </si>
+  <si>
+    <t>Lunes</t>
+  </si>
+  <si>
+    <t>Jueves</t>
+  </si>
+  <si>
+    <t>Pago mensual Futbol</t>
+  </si>
+  <si>
+    <t>Alquiler Parrilla</t>
+  </si>
+  <si>
+    <t>Tabla Motivo de pago</t>
+  </si>
+  <si>
+    <t>Cod_Motivo</t>
+  </si>
+  <si>
+    <t>Motivo</t>
+  </si>
+  <si>
+    <t>Tarjeta Credito</t>
   </si>
 </sst>
 </file>
@@ -329,9 +359,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -348,20 +375,23 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -665,10 +695,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G33"/>
+  <dimension ref="A2:G49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -686,10 +716,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="18"/>
+      <c r="B2" s="16"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -698,10 +728,10 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>1</v>
@@ -750,7 +780,7 @@
         <v>5</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -759,7 +789,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>7</v>
@@ -782,10 +812,10 @@
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="19"/>
+      <c r="B8" s="17"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -813,19 +843,18 @@
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="B12" s="16"/>
+      <c r="A12" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="18"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>13</v>
@@ -834,16 +863,7 @@
         <v>14</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -859,71 +879,69 @@
       <c r="D14" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F14" s="6">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="G14" s="6">
-        <v>0.83333333333333337</v>
-      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="B16" s="16"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
+      <c r="A17" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
-        <v>21</v>
-      </c>
-      <c r="B18" s="3">
-        <v>2</v>
-      </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
+      <c r="A18" s="15">
+        <v>4</v>
+      </c>
+      <c r="B18" s="15">
+        <v>1</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" s="6">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E18" s="6">
+        <v>0.83333333333333337</v>
+      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
-        <v>21</v>
-      </c>
-      <c r="B19" s="3">
+      <c r="A19" s="15">
         <v>4</v>
       </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
+      <c r="B19" s="15">
+        <v>4</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" s="6">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="E19" s="6">
+        <v>0.70833333333333337</v>
+      </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" s="16"/>
+      <c r="A21" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" s="18"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -932,79 +950,48 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>8</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
-        <v>510</v>
-      </c>
-      <c r="B23" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="3">
-        <v>40862096</v>
-      </c>
-      <c r="D23" s="4">
-        <v>36018</v>
-      </c>
-      <c r="E23" s="3">
-        <v>44629483</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>22</v>
-      </c>
+      <c r="B23" s="3">
+        <v>4</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C24" s="12"/>
-      <c r="D24" s="11"/>
+      <c r="A24" s="3">
+        <v>21</v>
+      </c>
+      <c r="B24" s="3">
+        <v>2</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" s="10">
-        <v>42681</v>
-      </c>
-      <c r="C25" s="13"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-    </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
+      <c r="A26" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26" s="18"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
@@ -1012,72 +999,80 @@
       <c r="G26" s="1"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27" s="17"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
+      <c r="A27" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B28" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C28" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="D28" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="E28" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="F28" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="G28" s="1"/>
+      <c r="A28" s="3">
+        <v>510</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28" s="3">
+        <v>40862096</v>
+      </c>
+      <c r="D28" s="4">
+        <v>36018</v>
+      </c>
+      <c r="E28" s="3">
+        <v>44629483</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="8">
-        <v>315468862</v>
-      </c>
-      <c r="B29" s="8">
-        <v>510</v>
-      </c>
-      <c r="C29" s="4">
-        <v>43402</v>
-      </c>
-      <c r="D29" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="E29" s="3">
-        <v>2018</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>29</v>
-      </c>
+      <c r="A29" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C29" s="11"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
       <c r="G29" s="1"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="9"/>
-      <c r="B30" s="9"/>
-      <c r="C30" s="1"/>
+      <c r="A30" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B30" s="9">
+        <v>42681</v>
+      </c>
+      <c r="C30" s="12"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="B31" s="16"/>
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
@@ -1085,60 +1080,200 @@
       <c r="G31" s="1"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="14" t="s">
+      <c r="A32" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B32" s="19"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D33" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E33" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="F33" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="G33" s="1"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="8">
+        <v>315468862</v>
+      </c>
+      <c r="B34" s="8">
+        <v>510</v>
+      </c>
+      <c r="C34" s="4">
+        <v>43402</v>
+      </c>
+      <c r="D34" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="E34" s="3">
+        <v>2018</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G34" s="1"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="B36" s="18"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="B37" s="20" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="15">
+        <v>1</v>
+      </c>
+      <c r="B38" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="15">
+        <v>2</v>
+      </c>
+      <c r="B39" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="15">
+        <v>3</v>
+      </c>
+      <c r="B40" s="15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="B42" s="18"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="B43" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="G43" s="1"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="15">
+        <v>1</v>
+      </c>
+      <c r="B44" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="G44" s="1"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="15">
+        <v>2</v>
+      </c>
+      <c r="B45" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="G45" s="1"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B47" s="18"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B48" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C48" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D48" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E48" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="F48" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C32" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="D32" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="E32" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="F32" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="G32" s="1"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="3">
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
         <v>521351322</v>
       </c>
-      <c r="B33" s="3">
+      <c r="B49" s="3">
         <v>21</v>
       </c>
-      <c r="C33" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D33" s="3" t="s">
+      <c r="C49" s="3">
+        <v>1</v>
+      </c>
+      <c r="D49" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E33" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F33" s="4">
+      <c r="E49" s="3">
+        <v>1</v>
+      </c>
+      <c r="F49" s="4">
         <v>43398</v>
       </c>
-      <c r="G33" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="10">
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A32:B32"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A31:B31"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G4" r:id="rId1"/>
-    <hyperlink ref="G23" r:id="rId2"/>
+    <hyperlink ref="G28" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
